--- a/xlsx/User-Fuzheado_intext.xlsx
+++ b/xlsx/User-Fuzheado_intext.xlsx
@@ -29,13 +29,13 @@
     <t>维基百科</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_User-Fuzheado</t>
+    <t>政策_政策_维基百科_User-Fuzheado</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%8F%E8%A6%8B</t>
   </si>
   <si>
-    <t>偏見</t>
+    <t>偏见</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%97%BB</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%AA%E9%99%A4</t>
   </si>
   <si>
-    <t>刪除</t>
+    <t>删除</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%A1%E7%9B%AE</t>
